--- a/Rabu, 07.00-09.30 Kecerdasan Buatan/Minggu 11 - (Perceptron)/M11-AI-A2-2113191079-ISEP LUTPI NUR.xlsx
+++ b/Rabu, 07.00-09.30 Kecerdasan Buatan/Minggu 11 - (Perceptron)/M11-AI-A2-2113191079-ISEP LUTPI NUR.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\semester7\Rabu, 07.00-09.30 Kecerdasan Buatan\Minggu 11 - (Perceptron)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\DATA KULIAH SEMESTER 7\Rabu, 07.00-09.30 Kecerdasan Buatan\Minggu 11 - (Perceptron)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AC531-0DB5-4CE7-A2AA-4AA09BA08FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE15BCF5-00D8-4567-A851-CAA346067781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D69C78D3-2215-4B48-AA55-203E889DE061}"/>
   </bookViews>
   <sheets>
     <sheet name="tugas prkatek" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'tugas prkatek'!$A$1:$K$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -91,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -288,37 +291,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4BD536-6E63-45FD-91E8-DF56D9A30E36}">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +732,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -763,7 +766,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="6">
         <v>0</v>
       </c>
@@ -795,7 +798,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="6">
         <v>1</v>
       </c>
@@ -827,7 +830,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="8">
         <v>1</v>
       </c>
@@ -859,7 +862,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
       <c r="C12" s="4">
@@ -893,7 +896,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="6">
         <v>0</v>
       </c>
@@ -925,7 +928,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="6">
         <v>1</v>
       </c>
@@ -957,7 +960,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="8">
         <v>1</v>
       </c>
@@ -989,7 +992,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>3</v>
       </c>
       <c r="C16" s="4">
@@ -1023,7 +1026,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="6">
         <v>0</v>
       </c>
@@ -1055,7 +1058,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="6">
         <v>1</v>
       </c>
@@ -1087,7 +1090,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="8">
         <v>1</v>
       </c>
@@ -1119,7 +1122,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>4</v>
       </c>
       <c r="C20" s="4">
@@ -1153,7 +1156,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="6">
         <v>0</v>
       </c>
@@ -1185,7 +1188,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="6">
         <v>1</v>
       </c>
@@ -1195,7 +1198,7 @@
       <c r="E22" s="6">
         <v>-1</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>-2.2204460492503131E-16</v>
       </c>
@@ -1217,7 +1220,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="8">
         <v>1</v>
       </c>
@@ -1249,7 +1252,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>5</v>
       </c>
       <c r="C24" s="4">
@@ -1283,7 +1286,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="6">
         <v>0</v>
       </c>
@@ -1315,7 +1318,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="6">
         <v>1</v>
       </c>
@@ -1347,7 +1350,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="8">
         <v>1</v>
       </c>
@@ -1379,7 +1382,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>6</v>
       </c>
       <c r="C28" s="4">
@@ -1413,7 +1416,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="6">
         <v>0</v>
       </c>
@@ -1445,7 +1448,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="6">
         <v>1</v>
       </c>
@@ -1477,7 +1480,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="8">
         <v>1</v>
       </c>
@@ -1509,7 +1512,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>7</v>
       </c>
       <c r="C32" s="4">
@@ -1543,7 +1546,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="6">
         <v>0</v>
       </c>
@@ -1575,7 +1578,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="6">
         <v>1</v>
       </c>
@@ -1607,7 +1610,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="8">
         <v>1</v>
       </c>
@@ -1639,7 +1642,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>8</v>
       </c>
       <c r="C36" s="4">
@@ -1673,7 +1676,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="6">
         <v>0</v>
       </c>
@@ -1705,7 +1708,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="6">
         <v>1</v>
       </c>
@@ -1737,7 +1740,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="8">
         <v>1</v>
       </c>
@@ -1769,7 +1772,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>9</v>
       </c>
       <c r="C40" s="4">
@@ -1803,7 +1806,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="6">
         <v>0</v>
       </c>
@@ -1835,7 +1838,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="6">
         <v>1</v>
       </c>
@@ -1867,7 +1870,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="8">
         <v>1</v>
       </c>
@@ -1932,6 +1935,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B12:B15"/>
@@ -1940,14 +1949,8 @@
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>